--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.842</v>
+        <v>-1.654</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.028</v>
+        <v>-0.626</v>
       </c>
       <c r="D4" t="n">
-        <v>64.39</v>
+        <v>-62.15</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.021</v>
+        <v>-0.006</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.12</v>
+        <v>0.022</v>
       </c>
       <c r="D5" t="n">
-        <v>471.43</v>
+        <v>-466.67</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.042999999999999</v>
+        <v>7.101</v>
       </c>
       <c r="C6" t="n">
-        <v>12.817</v>
+        <v>4.35</v>
       </c>
       <c r="D6" t="n">
-        <v>41.73</v>
+        <v>-38.74</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.593</v>
+        <v>0.487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.869</v>
+        <v>0.277</v>
       </c>
       <c r="D7" t="n">
-        <v>46.54</v>
+        <v>-43.12</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.835</v>
+        <v>18.101</v>
       </c>
       <c r="C8" t="n">
-        <v>23.47</v>
+        <v>14.446</v>
       </c>
       <c r="D8" t="n">
-        <v>24.61</v>
+        <v>-20.19</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.252000000000001</v>
+        <v>6.838</v>
       </c>
       <c r="C9" t="n">
-        <v>11.204</v>
+        <v>3.963</v>
       </c>
       <c r="D9" t="n">
-        <v>35.77</v>
+        <v>-42.04</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99</v>
+        <v>62.323</v>
       </c>
       <c r="C10" t="n">
-        <v>183.166</v>
+        <v>30.466</v>
       </c>
       <c r="D10" t="n">
-        <v>85.02</v>
+        <v>-51.12</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.768</v>
+        <v>0.443</v>
       </c>
       <c r="C11" t="n">
-        <v>3.119</v>
+        <v>0.15</v>
       </c>
       <c r="D11" t="n">
-        <v>306.12</v>
+        <v>-66.14</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.866</v>
+        <v>-4.272</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.853999999999999</v>
+        <v>-1.577</v>
       </c>
       <c r="D12" t="n">
-        <v>102.51</v>
+        <v>-63.09</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.949999999999999</v>
+        <v>7.895</v>
       </c>
       <c r="C13" t="n">
-        <v>13.534</v>
+        <v>5.52</v>
       </c>
       <c r="D13" t="n">
-        <v>36.02</v>
+        <v>-30.08</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.747611999511719</v>
+        <v>3.211816379002162</v>
       </c>
       <c r="C4" t="n">
-        <v>4.802681975066662</v>
+        <v>4.992622471991039</v>
       </c>
       <c r="D4" t="n">
-        <v>74.79000000000001</v>
+        <v>55.45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196189854725985</v>
+        <v>0.6108387511529482</v>
       </c>
       <c r="F4" t="n">
-        <v>4.873816116304776</v>
+        <v>1.354525243990302</v>
       </c>
       <c r="G4" t="n">
-        <v>2384.23</v>
+        <v>121.75</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.737</v>
+        <v>0.755</v>
       </c>
       <c r="D5" t="n">
-        <v>-31.51</v>
+        <v>-29.83</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.797414700862006</v>
+        <v>3.078968157868192</v>
       </c>
       <c r="C6" t="n">
-        <v>4.54670873197938</v>
+        <v>2.308653809732548</v>
       </c>
       <c r="D6" t="n">
-        <v>-33.11</v>
+        <v>-25.02</v>
       </c>
       <c r="E6" t="n">
-        <v>2.84472498928112</v>
+        <v>1.102920073808632</v>
       </c>
       <c r="F6" t="n">
-        <v>1.756949965955352</v>
+        <v>0.5064587231938673</v>
       </c>
       <c r="G6" t="n">
-        <v>-38.24</v>
+        <v>-54.08</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.654</v>
+        <v>-3.557</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.626</v>
+        <v>-2.688</v>
       </c>
       <c r="D4" t="n">
-        <v>-62.15</v>
+        <v>-24.43</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006</v>
+        <v>-0.033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.022</v>
+        <v>-0.341</v>
       </c>
       <c r="D5" t="n">
-        <v>-466.67</v>
+        <v>933.33</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.101</v>
+        <v>12.195</v>
       </c>
       <c r="C6" t="n">
-        <v>4.35</v>
+        <v>9.869</v>
       </c>
       <c r="D6" t="n">
-        <v>-38.74</v>
+        <v>-19.07</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.487</v>
+        <v>0.875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.277</v>
+        <v>0.694</v>
       </c>
       <c r="D7" t="n">
-        <v>-43.12</v>
+        <v>-20.69</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.101</v>
+        <v>23.192</v>
       </c>
       <c r="C8" t="n">
-        <v>14.446</v>
+        <v>23.611</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.19</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.838</v>
+        <v>11.336</v>
       </c>
       <c r="C9" t="n">
-        <v>3.963</v>
+        <v>9.32</v>
       </c>
       <c r="D9" t="n">
-        <v>-42.04</v>
+        <v>-17.78</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.323</v>
+        <v>160.936</v>
       </c>
       <c r="C10" t="n">
-        <v>30.466</v>
+        <v>113.257</v>
       </c>
       <c r="D10" t="n">
-        <v>-51.12</v>
+        <v>-29.63</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.443</v>
+        <v>3.009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.15</v>
+        <v>1.468</v>
       </c>
       <c r="D11" t="n">
-        <v>-66.14</v>
+        <v>-51.21</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.272</v>
+        <v>-12.613</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.577</v>
+        <v>-8.58</v>
       </c>
       <c r="D12" t="n">
-        <v>-63.09</v>
+        <v>-31.97</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.895</v>
+        <v>12.686</v>
       </c>
       <c r="C13" t="n">
-        <v>5.52</v>
+        <v>10.642</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.08</v>
+        <v>-16.11</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.211816379002162</v>
+        <v>2.559451398395357</v>
       </c>
       <c r="C4" t="n">
-        <v>4.992622471991039</v>
+        <v>3.467308203379313</v>
       </c>
       <c r="D4" t="n">
-        <v>55.45</v>
+        <v>35.47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6108387511529482</v>
+        <v>0.1974182775923618</v>
       </c>
       <c r="F4" t="n">
-        <v>1.354525243990302</v>
+        <v>1.106991601166786</v>
       </c>
       <c r="G4" t="n">
-        <v>121.75</v>
+        <v>460.73</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.076</v>
+        <v>0.278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.755</v>
+        <v>0.266</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.83</v>
+        <v>-4.32</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.078968157868192</v>
+        <v>4.08611713600277</v>
       </c>
       <c r="C6" t="n">
-        <v>2.308653809732548</v>
+        <v>3.203122103334315</v>
       </c>
       <c r="D6" t="n">
-        <v>-25.02</v>
+        <v>-21.61</v>
       </c>
       <c r="E6" t="n">
-        <v>1.102920073808632</v>
+        <v>0.4056353220426172</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5064587231938673</v>
+        <v>0.1515383860389957</v>
       </c>
       <c r="G6" t="n">
-        <v>-54.08</v>
+        <v>-62.64</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/2_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
